--- a/printer/templates/template_2.xlsx
+++ b/printer/templates/template_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\#### D\Work\# python\chickenPrinter\printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D641DD82-0CC7-4DE8-94FA-365C1AEF108E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59153D5-5E55-44A1-A2F6-CE3F2D41AB75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Годен до:</t>
-  </si>
-  <si>
-    <t>{{STB}}</t>
   </si>
   <si>
     <t>Пищевая ценность: {{nutritional_value}}
@@ -108,9 +105,6 @@
   </si>
   <si>
     <t>{{date3}}</t>
-  </si>
-  <si>
-    <t>{{RC_BY}}</t>
   </si>
   <si>
     <t>дата упаковывания</t>
@@ -213,7 +207,16 @@
 {{storage_conditions}}</t>
   </si>
   <si>
-    <t>Партия №{{date2}}         Упаковщик: {{user}}</t>
+    <t>Упаковщик: {{user}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Партия №{{date2}}    </t>
+  </si>
+  <si>
+    <t>packs</t>
+  </si>
+  <si>
+    <t>количество упаковок</t>
   </si>
 </sst>
 </file>
@@ -334,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -392,7 +395,69 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
         <color auto="1"/>
       </left>
       <right/>
@@ -401,77 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color auto="1"/>
@@ -526,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -576,15 +570,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -592,52 +586,54 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -648,38 +644,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:N10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1016,7 +1015,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -1071,38 +1070,38 @@
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
-      <c r="B4" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="54"/>
+      <c r="B4" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
       <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
       <c r="O5" s="19"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1110,90 +1109,90 @@
     </row>
     <row r="6" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
       <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="62"/>
+      <c r="B7" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
       <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="62"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="59"/>
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="62"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="59"/>
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="44"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
@@ -1202,172 +1201,170 @@
       <c r="D11" s="28"/>
       <c r="G11" s="31"/>
       <c r="H11" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="44"/>
+        <v>23</v>
+      </c>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="30"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34" t="s">
+      <c r="G12" s="28"/>
+      <c r="H12" s="33" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="44"/>
-    </row>
-    <row r="13" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="43"/>
+    </row>
+    <row r="13" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="44"/>
-    </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="43"/>
+    </row>
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="64"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
-      <c r="B15" s="36"/>
+      <c r="B15" s="64" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
       <c r="E15" s="65"/>
       <c r="F15" s="65"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="66"/>
       <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
-      <c r="B16" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
       <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="32" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="34"/>
       <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
-      <c r="B18" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="37"/>
+      <c r="B18" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="35"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="34"/>
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
-      <c r="B19" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
+      <c r="B19" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="48"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
-      <c r="B20" s="36"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="37" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="32"/>
@@ -1378,25 +1375,25 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="35"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
       <c r="O20" s="19"/>
     </row>
     <row r="21" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
       <c r="O21" s="19"/>
     </row>
     <row r="22" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1425,15 +1422,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B19:N19"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="J16:N16"/>
     <mergeCell ref="B4:N6"/>
-    <mergeCell ref="B16:H17"/>
     <mergeCell ref="B7:N10"/>
-    <mergeCell ref="G14:N15"/>
-    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G13:N14"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="B15:N16"/>
   </mergeCells>
   <pageMargins left="3.9583333333333297E-2" right="3.9583333333333297E-2" top="3.9583333333333297E-2" bottom="3.9583333333333297E-2" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="260" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1445,7 +1441,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1458,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1466,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1474,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1482,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1490,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1498,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1506,7 +1502,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1514,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1522,7 +1518,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1530,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1538,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1546,7 +1542,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1554,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1562,7 +1558,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1570,20 +1566,28 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1594,45 +1598,45 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="F25" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="F26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="F27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="F28" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="F29" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="F31" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/printer/templates/template_2.xlsx
+++ b/printer/templates/template_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\#### D\Work\# python\chickenPrinter\printer\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\#### D\Work\# python\chickenPrinter_2\printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59153D5-5E55-44A1-A2F6-CE3F2D41AB75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C415012-6DC9-4998-BF46-B27FFFE33BBC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -520,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -680,6 +680,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -997,7 +998,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1203,7 +1204,7 @@
       <c r="H11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="67" t="s">
         <v>23</v>
       </c>
       <c r="O11" s="43"/>
@@ -1219,7 +1220,7 @@
       <c r="H12" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="67" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="33"/>
@@ -1286,7 +1287,7 @@
       <c r="N15" s="66"/>
       <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="64"/>
       <c r="C16" s="65"/>
@@ -1303,7 +1304,7 @@
       <c r="N16" s="66"/>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="44"/>
       <c r="C17" s="45"/>
